--- a/R Version/pops.xlsx
+++ b/R Version/pops.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -32,15 +32,27 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve">2030</t>
+  </si>
+  <si>
     <t xml:space="preserve">2040</t>
   </si>
   <si>
+    <t xml:space="preserve">2050</t>
+  </si>
+  <si>
     <t xml:space="preserve">2060</t>
   </si>
   <si>
+    <t xml:space="preserve">2070</t>
+  </si>
+  <si>
     <t xml:space="preserve">2080</t>
   </si>
   <si>
+    <t xml:space="preserve">2090</t>
+  </si>
+  <si>
     <t xml:space="preserve">2100</t>
   </si>
   <si>
@@ -59,7 +71,7 @@
     <t xml:space="preserve">South America</t>
   </si>
   <si>
-    <t xml:space="preserve">North America</t>
+    <t xml:space="preserve">Northern America</t>
   </si>
   <si>
     <t xml:space="preserve">World</t>
@@ -71,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -390,12 +402,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -428,261 +440,369 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>227794.137</v>
+        <v>227549.258</v>
       </c>
       <c r="C2" t="n">
-        <v>363447.593</v>
+        <v>365450.108</v>
       </c>
       <c r="D2" t="n">
-        <v>630349.685</v>
+        <v>638157.2365</v>
       </c>
       <c r="E2" t="n">
-        <v>1039304.03</v>
+        <v>1055233.397</v>
       </c>
       <c r="F2" t="n">
-        <v>1340598.113</v>
+        <v>1360677.2305</v>
       </c>
       <c r="G2" t="n">
-        <v>2076749.579</v>
+        <v>1710666.3585</v>
       </c>
       <c r="H2" t="n">
-        <v>2904977.434</v>
+        <v>2093408.427</v>
       </c>
       <c r="I2" t="n">
-        <v>3680570.725</v>
+        <v>2485135.539</v>
       </c>
       <c r="J2" t="n">
-        <v>4280127.131</v>
+        <v>2861079.511</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3205773.359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3504401.6395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3746056.451</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3924420.614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>554419.269</v>
+        <v>543979.233</v>
       </c>
       <c r="C3" t="n">
-        <v>827601.385</v>
+        <v>822534.45</v>
       </c>
       <c r="D3" t="n">
-        <v>1176883.681</v>
+        <v>1153704.2525</v>
       </c>
       <c r="E3" t="n">
-        <v>1368810.604</v>
+        <v>1348191.368</v>
       </c>
       <c r="F3" t="n">
-        <v>1439323.774</v>
+        <v>1424929.781</v>
       </c>
       <c r="G3" t="n">
-        <v>1449031.42</v>
+        <v>1415605.9055</v>
       </c>
       <c r="H3" t="n">
-        <v>1333030.632</v>
+        <v>1377556.9385</v>
       </c>
       <c r="I3" t="n">
-        <v>1185891.297</v>
+        <v>1312636.3245</v>
       </c>
       <c r="J3" t="n">
-        <v>1064993.457</v>
+        <v>1205020.6505</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1085287.617</v>
+      </c>
+      <c r="L3" t="n">
+        <v>972906.8915</v>
+      </c>
+      <c r="M3" t="n">
+        <v>863319.5355</v>
+      </c>
+      <c r="N3" t="n">
+        <v>766673.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>549328.859</v>
+        <v>549721.7185</v>
       </c>
       <c r="C4" t="n">
-        <v>656919.37</v>
+        <v>656521.426</v>
       </c>
       <c r="D4" t="n">
-        <v>720858.411</v>
+        <v>721497.2815</v>
       </c>
       <c r="E4" t="n">
-        <v>736412.998</v>
+        <v>736276.8125</v>
       </c>
       <c r="F4" t="n">
-        <v>747636.045</v>
+        <v>746225.3565</v>
       </c>
       <c r="G4" t="n">
-        <v>727810.629</v>
+        <v>736574.2145</v>
       </c>
       <c r="H4" t="n">
-        <v>688790.495</v>
+        <v>722508.1395</v>
       </c>
       <c r="I4" t="n">
-        <v>649588.761</v>
+        <v>703007.486</v>
       </c>
       <c r="J4" t="n">
-        <v>629562.562</v>
+        <v>676245.8355</v>
+      </c>
+      <c r="K4" t="n">
+        <v>648317.2575</v>
+      </c>
+      <c r="L4" t="n">
+        <v>624294.3645</v>
+      </c>
+      <c r="M4" t="n">
+        <v>604036.909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>586515.447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>376325.2</v>
+        <v>357021.0995</v>
       </c>
       <c r="C5" t="n">
-        <v>555189.797</v>
+        <v>557501.3015</v>
       </c>
       <c r="D5" t="n">
-        <v>873277.799</v>
+        <v>870452.165</v>
       </c>
       <c r="E5" t="n">
-        <v>1234281.163</v>
+        <v>1240613.62</v>
       </c>
       <c r="F5" t="n">
-        <v>1380004.385</v>
+        <v>1396387.127</v>
       </c>
       <c r="G5" t="n">
-        <v>1592691.52</v>
+        <v>1514994.0805</v>
       </c>
       <c r="H5" t="n">
-        <v>1651018.523</v>
+        <v>1611676.3325</v>
       </c>
       <c r="I5" t="n">
-        <v>1580043.792</v>
+        <v>1670490.5955</v>
       </c>
       <c r="J5" t="n">
-        <v>1447025.612</v>
+        <v>1695285.4965</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1690230.7825</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1654856.9315</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1597908.861</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1529850.119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>168820.524</v>
+        <v>168335.846</v>
       </c>
       <c r="C6" t="n">
-        <v>286675.705</v>
+        <v>286525.5325</v>
       </c>
       <c r="D6" t="n">
-        <v>442840.078</v>
+        <v>442565.114</v>
       </c>
       <c r="E6" t="n">
-        <v>591352.345</v>
+        <v>590547.013</v>
       </c>
       <c r="F6" t="n">
-        <v>653962.332</v>
+        <v>651836.1215</v>
       </c>
       <c r="G6" t="n">
-        <v>742347.826</v>
+        <v>697584.818</v>
       </c>
       <c r="H6" t="n">
-        <v>767494.831</v>
+        <v>731825.4725</v>
       </c>
       <c r="I6" t="n">
-        <v>738619.999</v>
+        <v>749168.715</v>
       </c>
       <c r="J6" t="n">
-        <v>679992.94</v>
+        <v>750731.731</v>
+      </c>
+      <c r="K6" t="n">
+        <v>738481.4545</v>
+      </c>
+      <c r="L6" t="n">
+        <v>714296.369</v>
+      </c>
+      <c r="M6" t="n">
+        <v>682437.4535</v>
+      </c>
+      <c r="N6" t="n">
+        <v>647399.7035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>172602.611</v>
+        <v>162089.353</v>
       </c>
       <c r="C7" t="n">
-        <v>230991.859</v>
+        <v>221865.9065</v>
       </c>
       <c r="D7" t="n">
-        <v>279785.251</v>
+        <v>275860.329</v>
       </c>
       <c r="E7" t="n">
-        <v>343287.422</v>
+        <v>345272.1075</v>
       </c>
       <c r="F7" t="n">
-        <v>368869.644</v>
+        <v>373956.671</v>
       </c>
       <c r="G7" t="n">
-        <v>410177.116</v>
+        <v>393296.506</v>
       </c>
       <c r="H7" t="n">
-        <v>439379.231</v>
+        <v>410560.7955</v>
       </c>
       <c r="I7" t="n">
-        <v>467638.872</v>
+        <v>421397.9845</v>
       </c>
       <c r="J7" t="n">
-        <v>490888.556</v>
+        <v>428607.1425</v>
+      </c>
+      <c r="K7" t="n">
+        <v>436416.085</v>
+      </c>
+      <c r="L7" t="n">
+        <v>442464.2125</v>
+      </c>
+      <c r="M7" t="n">
+        <v>445522.605</v>
+      </c>
+      <c r="N7" t="n">
+        <v>448026.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>2536431.018</v>
+        <v>2499322.157</v>
       </c>
       <c r="C8" t="n">
-        <v>3700437.042</v>
+        <v>3695390.336</v>
       </c>
       <c r="D8" t="n">
-        <v>5327231.04100001</v>
+        <v>5316175.862</v>
       </c>
       <c r="E8" t="n">
-        <v>6956823.588</v>
+        <v>6985603.105</v>
       </c>
       <c r="F8" t="n">
-        <v>7794798.729</v>
+        <v>7840952.88</v>
       </c>
       <c r="G8" t="n">
-        <v>9198847.382</v>
+        <v>8546141.3265</v>
       </c>
       <c r="H8" t="n">
-        <v>10151469.683</v>
+        <v>9188250.492</v>
       </c>
       <c r="I8" t="n">
-        <v>10673904.454</v>
+        <v>9709491.7605</v>
       </c>
       <c r="J8" t="n">
-        <v>10875393.719</v>
+        <v>10067733.6065</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10297166.711</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10414637.1885</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10423541.036</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10349323.038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>487140.418</v>
+        <v>490625.649000002</v>
       </c>
       <c r="C9" t="n">
-        <v>779611.333</v>
+        <v>784991.6115</v>
       </c>
       <c r="D9" t="n">
-        <v>1203236.13600001</v>
+        <v>1213939.4835</v>
       </c>
       <c r="E9" t="n">
-        <v>1643375.026</v>
+        <v>1669468.787</v>
       </c>
       <c r="F9" t="n">
-        <v>1864404.436</v>
+        <v>1886940.5925</v>
       </c>
       <c r="G9" t="n">
-        <v>2200039.292</v>
+        <v>2077419.4435</v>
       </c>
       <c r="H9" t="n">
-        <v>2366778.537</v>
+        <v>2240714.38649999</v>
       </c>
       <c r="I9" t="n">
-        <v>2371551.008</v>
+        <v>2367655.116</v>
       </c>
       <c r="J9" t="n">
-        <v>2282803.461</v>
+        <v>2450763.2395</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2492660.15550001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2501416.78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2484259.22100001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2446437.7645</v>
       </c>
     </row>
   </sheetData>

--- a/R Version/pops.xlsx
+++ b/R Version/pops.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -20,12 +20,21 @@
     <t xml:space="preserve">1950</t>
   </si>
   <si>
+    <t xml:space="preserve">1960</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970</t>
   </si>
   <si>
+    <t xml:space="preserve">1980</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990</t>
   </si>
   <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010</t>
   </si>
   <si>
@@ -71,7 +80,7 @@
     <t xml:space="preserve">South America</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern America</t>
+    <t xml:space="preserve">North America</t>
   </si>
   <si>
     <t xml:space="preserve">World</t>
@@ -452,356 +461,437 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>227549.258</v>
       </c>
       <c r="C2" t="n">
+        <v>284287.8555</v>
+      </c>
+      <c r="D2" t="n">
         <v>365450.108</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>481542.773</v>
+      </c>
+      <c r="F2" t="n">
         <v>638157.2365</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>818952.057</v>
+      </c>
+      <c r="H2" t="n">
         <v>1055233.397</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>1360677.2305</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>1710666.3585</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>2093408.427</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>2485135.539</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>2861079.511</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>3205773.359</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>3504401.6395</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>3746056.451</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>3924420.614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>543979.233</v>
       </c>
       <c r="C3" t="n">
+        <v>654170.692</v>
+      </c>
+      <c r="D3" t="n">
         <v>822534.45</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>982372.466</v>
+      </c>
+      <c r="F3" t="n">
         <v>1153704.2525</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>1264099.069</v>
+      </c>
+      <c r="H3" t="n">
         <v>1348191.368</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>1424929.781</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>1415605.9055</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>1377556.9385</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>1312636.3245</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>1205020.6505</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>1085287.617</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>972906.8915</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>863319.5355</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>766673.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>549721.7185</v>
       </c>
       <c r="C4" t="n">
+        <v>605629.8695</v>
+      </c>
+      <c r="D4" t="n">
         <v>656521.426</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>693437.2285</v>
+      </c>
+      <c r="F4" t="n">
         <v>721497.2815</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>726968.473</v>
+      </c>
+      <c r="H4" t="n">
         <v>736276.8125</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>746225.3565</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>736574.2145</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>722508.1395</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>703007.486</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>676245.8355</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>648317.2575</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>624294.3645</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>604036.909</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>586515.447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>357021.0995</v>
       </c>
       <c r="C5" t="n">
+        <v>445954.5785</v>
+      </c>
+      <c r="D5" t="n">
         <v>557501.3015</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>696828.3845</v>
+      </c>
+      <c r="F5" t="n">
         <v>870452.165</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>1059633.6755</v>
+      </c>
+      <c r="H5" t="n">
         <v>1240613.62</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>1396387.127</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>1514994.0805</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>1611676.3325</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>1670490.5955</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>1695285.4965</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>1690230.7825</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>1654856.9315</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>1597908.861</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>1529850.119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>168335.846</v>
       </c>
       <c r="C6" t="n">
+        <v>219754.1605</v>
+      </c>
+      <c r="D6" t="n">
         <v>286525.5325</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>362332.604</v>
+      </c>
+      <c r="F6" t="n">
         <v>442565.114</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>522512.13</v>
+      </c>
+      <c r="H6" t="n">
         <v>590547.013</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>651836.1215</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>697584.818</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>731825.4725</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>749168.715</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>750731.731</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>738481.4545</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>714296.369</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>682437.4535</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>647399.7035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>162089.353</v>
       </c>
       <c r="C7" t="n">
+        <v>194177.0085</v>
+      </c>
+      <c r="D7" t="n">
         <v>221865.9065</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>247761.3045</v>
+      </c>
+      <c r="F7" t="n">
         <v>275860.329</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>313205.695</v>
+      </c>
+      <c r="H7" t="n">
         <v>345272.1075</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>373956.671</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>393296.506</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>410560.7955</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>421397.9845</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>428607.1425</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>436416.085</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>442464.2125</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>445522.605</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>448026.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2499322.157</v>
       </c>
       <c r="C8" t="n">
+        <v>3019233.434</v>
+      </c>
+      <c r="D8" t="n">
         <v>3695390.336</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>4444007.7055</v>
+      </c>
+      <c r="F8" t="n">
         <v>5316175.862</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>6148898.975</v>
+      </c>
+      <c r="H8" t="n">
         <v>6985603.105</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>7840952.88</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>8546141.3265</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>9188250.492</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>9709491.7605</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>10067733.6065</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>10297166.711</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>10414637.1885</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>10423541.036</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>10349323.038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>490625.649000002</v>
       </c>
       <c r="C9" t="n">
+        <v>615259.269500001</v>
+      </c>
+      <c r="D9" t="n">
         <v>784991.6115</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>979732.944999998</v>
+      </c>
+      <c r="F9" t="n">
         <v>1213939.4835</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>1443527.8755</v>
+      </c>
+      <c r="H9" t="n">
         <v>1669468.787</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>1886940.5925</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>2077419.4435</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>2240714.38649999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>2367655.116</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>2450763.2395</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>2492660.15550001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>2501416.78</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>2484259.22100001</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>2446437.7645</v>
       </c>
     </row>
